--- a/doors-detector/results/house21_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house21_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7165877420350931</v>
+        <v>0.7050491476933534</v>
       </c>
       <c r="F2" t="n">
         <v>1290</v>
       </c>
       <c r="G2" t="n">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="H2" t="n">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3463558100266403</v>
+        <v>0.3331144391213354</v>
       </c>
       <c r="F3" t="n">
         <v>113</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6443196994210149</v>
+        <v>0.6440438155888007</v>
       </c>
       <c r="F4" t="n">
         <v>283</v>
       </c>
       <c r="G4" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H4" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7717559159875488</v>
+        <v>0.7552870377939385</v>
       </c>
       <c r="F5" t="n">
         <v>1290</v>
       </c>
       <c r="G5" t="n">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="H5" t="n">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5127903147397043</v>
+        <v>0.5244262892176014</v>
       </c>
       <c r="F6" t="n">
         <v>113</v>
       </c>
       <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
         <v>77</v>
-      </c>
-      <c r="H6" t="n">
-        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6653464074487054</v>
+        <v>0.6845971338030014</v>
       </c>
       <c r="F7" t="n">
         <v>283</v>
       </c>
       <c r="G7" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H7" t="n">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8068867150013455</v>
+        <v>0.7902617002885571</v>
       </c>
       <c r="F8" t="n">
         <v>1290</v>
       </c>
       <c r="G8" t="n">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="H8" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5681890193662279</v>
+        <v>0.5862997335844491</v>
       </c>
       <c r="F9" t="n">
         <v>113</v>
       </c>
       <c r="G9" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6451761634086293</v>
+        <v>0.7230632885037984</v>
       </c>
       <c r="F10" t="n">
         <v>283</v>
       </c>
       <c r="G10" t="n">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H10" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7790307654957075</v>
+        <v>0.8270315018764042</v>
       </c>
       <c r="F11" t="n">
         <v>1290</v>
       </c>
       <c r="G11" t="n">
-        <v>1070</v>
+        <v>1117</v>
       </c>
       <c r="H11" t="n">
-        <v>220</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5459419852480757</v>
+        <v>0.6285497514140304</v>
       </c>
       <c r="F12" t="n">
         <v>113</v>
       </c>
       <c r="G12" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H12" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7586801103623964</v>
+        <v>0.7022064339713699</v>
       </c>
       <c r="F13" t="n">
         <v>283</v>
       </c>
       <c r="G13" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H13" t="n">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7940891072598079</v>
+        <v>0.8162544434808799</v>
       </c>
       <c r="F14" t="n">
         <v>1290</v>
       </c>
       <c r="G14" t="n">
-        <v>1088</v>
+        <v>1114</v>
       </c>
       <c r="H14" t="n">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.596063214716414</v>
+        <v>0.6478053939133828</v>
       </c>
       <c r="F15" t="n">
         <v>113</v>
       </c>
       <c r="G15" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H15" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7141179573791476</v>
+        <v>0.7324946532988799</v>
       </c>
       <c r="F16" t="n">
         <v>283</v>
       </c>
       <c r="G16" t="n">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H16" t="n">
-        <v>385</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8088587604124691</v>
+        <v>0.8344221810702354</v>
       </c>
       <c r="F17" t="n">
         <v>1290</v>
       </c>
       <c r="G17" t="n">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="H17" t="n">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6162001926615313</v>
+        <v>0.6712953979644031</v>
       </c>
       <c r="F18" t="n">
         <v>113</v>
@@ -1016,7 +1016,7 @@
         <v>84</v>
       </c>
       <c r="H18" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6993454015136381</v>
+        <v>0.7607765317821154</v>
       </c>
       <c r="F19" t="n">
         <v>283</v>
       </c>
       <c r="G19" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H19" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
